--- a/Systems Engineering/work2/data.xlsx
+++ b/Systems Engineering/work2/data.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaito\TeX-Folder\Systems Engineering\work2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0BA5BF75-BDE9-40F9-8C92-C1AE09B1C074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70C4DAA-E0C9-49A2-9B7A-39A7182C9BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{EEA42B0E-9D4C-4E50-8DAB-7DA22B7A757E}"/>
+    <workbookView xWindow="1360" yWindow="1170" windowWidth="21600" windowHeight="12680" xr2:uid="{EEA42B0E-9D4C-4E50-8DAB-7DA22B7A757E}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>基板サンプルNo.</t>
   </si>
@@ -59,6 +72,20 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>t値</t>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>p値</t>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1030,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6929D027-B3D4-491F-809B-263822E27CF8}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1639,6 +1666,24 @@
         <v>16</v>
       </c>
     </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <f>C20*SQRT((C21-2)/(1-C20^2))</f>
+        <v>3.4226197958259204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <f>_xlfn.T.DIST.2T(ABS(C22), C21-2)</f>
+        <v>4.1231468982308979E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
